--- a/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_03_end.xlsx
+++ b/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_03_end.xlsx
@@ -1408,7 +1408,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  How many “nobles” do you think there are in Kazdel? How many of them are Sarkaz who gave themselves some stupid title in an even stupider war?
+    <t xml:space="preserve">[name="Hoederer"]  How many 'nobles' do you think there are in Kazdel? How many of them are Sarkaz who gave themselves some stupid title in an even stupider war?
 </t>
   </si>
   <si>
@@ -1620,7 +1620,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  What do you think about Her Majesty? And Kal'tsit? And especially... that “Doctor?”
+    <t xml:space="preserve">[name="Hoederer"]  What do you think about Her Majesty? And Kal'tsit? And especially... that 'Doctor?'
 </t>
   </si>
   <si>
@@ -1648,7 +1648,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  But, I might’ve accidentally taken a peek at Her Majesty. My Arts can’t look directly into peoples’ minds. More like I can get a feel for them by looking over their “shadows”...
+    <t xml:space="preserve">[name="Ines"]  But, I might’ve accidentally taken a peek at Her Majesty. My Arts can’t look directly into peoples’ minds. More like I can get a feel for them by looking over their 'shadows'...
 </t>
   </si>
   <si>
@@ -1672,7 +1672,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  She sees us all as equals. She didn’t call us “devils.”
+    <t xml:space="preserve">[name="Ines"]  She sees us all as equals. She didn’t call us 'devils.'
 </t>
   </si>
   <si>
@@ -1680,7 +1680,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  What about the one they just call “The Doctor?”
+    <t xml:space="preserve">[name="Hoederer"]  What about the one they just call 'The Doctor?'
 </t>
   </si>
   <si>
@@ -1764,7 +1764,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  Or do you think the Regent, Her Majesty’s brother, will open his heart, say “all is forgiven,” and keep letting us raid the Lateranos?
+    <t xml:space="preserve">[name="Hoederer"]  Or do you think the Regent, Her Majesty’s brother, will open his heart, say 'all is forgiven,' and keep letting us raid the Lateranos?
 </t>
   </si>
   <si>
@@ -1840,7 +1840,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Yeah, the “alive” part is trickier than you’d think. Guy offed himself before I could even murk him. What’s a girl supposed to do?
+    <t xml:space="preserve">[name="W"]  Yeah, the 'alive' part is trickier than you’d think. Guy offed himself before I could even murk him. What’s a girl supposed to do?
 </t>
   </si>
   <si>
@@ -1948,7 +1948,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Uhh, probably better than you do? I’m the one actually down on the battlefield putting in work, “Dr. K”~
+    <t xml:space="preserve">Uhh, probably better than you do? I’m the one actually down on the battlefield putting in work, 'Dr. K'~
 </t>
   </si>
   <si>
@@ -2028,7 +2028,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">She and I are the same kind of person. If she can even be considered a “person,” that is. That’s one of a whole bunch of mysteries floating around her.
+    <t xml:space="preserve">She and I are the same kind of person. If she can even be considered a 'person,' that is. That’s one of a whole bunch of mysteries floating around her.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_03_end.xlsx
+++ b/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_03_end.xlsx
@@ -1372,15 +1372,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  You’ve decided.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  Sounds like you aren’t asking, Dr. Kal'tsit... Sorry, I just realized, I’m supposed to call you Lord Kal'tsit.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  There’s no point in talking about that now.
+    <t xml:space="preserve">[name="Kal'tsit"]  You've decided.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  Sounds like you aren't asking, Dr. Kal'tsit... Sorry, I just realized, I'm supposed to call you Lord Kal'tsit.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  There's no point in talking about that now.
 </t>
   </si>
   <si>
@@ -1416,7 +1416,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  That’s a good one. They are like weeds.
+    <t xml:space="preserve">[name="Hoederer"]  That's a good one. They are like weeds.
 </t>
   </si>
   <si>
@@ -1428,7 +1428,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  She’s the only one who could.
+    <t xml:space="preserve">[name="Hoederer"]  She's the only one who could.
 </t>
   </si>
   <si>
@@ -1436,7 +1436,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  Put it a little rougher, why don’t you, Doctor?
+    <t xml:space="preserve">[name="Ines"]  Put it a little rougher, why don't you, Doctor?
 </t>
   </si>
   <si>
@@ -1452,11 +1452,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  If you’ve decided to leave, I have no right to stop you. You can go and be free, travel the world as mercenaries.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  You don’t need me to tell you that.
+    <t xml:space="preserve">[name="Kal'tsit"]  If you've decided to leave, I have no right to stop you. You can go and be free, travel the world as mercenaries.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You don't need me to tell you that.
 </t>
   </si>
   <si>
@@ -1472,11 +1472,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  And it’s not like we have the power to make every mercenary follow the rules.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  That’s how mercenaries are. It’s a lot harder to keep order with these free spirits than with big standing armies. 
+    <t xml:space="preserve">[name="Hoederer"]  And it's not like we have the power to make every mercenary follow the rules.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  That's how mercenaries are. It's a lot harder to keep order with these free spirits than with big standing armies. 
 </t>
   </si>
   <si>
@@ -1484,11 +1484,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Regardless, you’ve chosen your path.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Even if it’s a dead end.
+    <t xml:space="preserve">[name="Kal'tsit"]  Regardless, you've chosen your path.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Even if it's a dead end.
 </t>
   </si>
   <si>
@@ -1508,43 +1508,43 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  A lot of them decided to stay, but there’s even more who don’t get to pick where home is anymore.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  The camp’s gone. The only equipment left is the bottom of the barrel stuff Babel left us.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  We’re more like campers going mountain climbing than mercenaries at this point...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  ...It’s always been like that, all the way back to when we first met in that birch grove and decided to carve our own path.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  Good thing Dr. Kal’tsit gave us a few special contracts. At least we’ll be able to get by.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  If we’re still going to be running errands for her, what difference does it make whether we leave Babel or not?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  We’re just a team of mercenaries fighting to make a profit, taking a lucrative contract.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  You’re lying to yourself.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  ...Wait, where’s our flag?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  I kept it. And everything else. If I’m gonna lie to myself, might as well be thorough about it.
+    <t xml:space="preserve">[name="Hoederer"]  A lot of them decided to stay, but there's even more who don't get to pick where home is anymore.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  The camp's gone. The only equipment left is the bottom of the barrel stuff Babel left us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  We're more like campers going mountain climbing than mercenaries at this point...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  ...It's always been like that, all the way back to when we first met in that birch grove and decided to carve our own path.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  Good thing Dr. Kal'tsit gave us a few special contracts. At least we'll be able to get by.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  If we're still going to be running errands for her, what difference does it make whether we leave Babel or not?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  We're just a team of mercenaries fighting to make a profit, taking a lucrative contract.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  You're lying to yourself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  ...Wait, where's our flag?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  I kept it. And everything else. If I'm gonna lie to myself, might as well be thorough about it.
 </t>
   </si>
   <si>
@@ -1584,7 +1584,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  But I’ve still got hands. I can hold up a flagpole.
+    <t xml:space="preserve">[name="Hoederer"]  But I've still got hands. I can hold up a flagpole.
 </t>
   </si>
   <si>
@@ -1596,7 +1596,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  It should’ve been stomped into the mud a long time ago.
+    <t xml:space="preserve">[name="Hoederer"]  It should've been stomped into the mud a long time ago.
 </t>
   </si>
   <si>
@@ -1608,7 +1608,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  ...Let’s not waste any more time.
+    <t xml:space="preserve">[name="Hoederer"]  ...Let's not waste any more time.
 </t>
   </si>
   <si>
@@ -1632,15 +1632,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  You didn’t use your Arts once the whole time you were there. That’s not like you. I was worried maybe—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  ...I didn’t have the guts. Not with the way Dr. Kal'tsit was looking at me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  She’s an unknown quantity.
+    <t xml:space="preserve">[name="Hoederer"]  You didn't use your Arts once the whole time you were there. That's not like you. I was worried maybe—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  ...I didn't have the guts. Not with the way Dr. Kal'tsit was looking at me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  She's an unknown quantity.
 </t>
   </si>
   <si>
@@ -1648,7 +1648,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  But, I might’ve accidentally taken a peek at Her Majesty. My Arts can’t look directly into peoples’ minds. More like I can get a feel for them by looking over their 'shadows'...
+    <t xml:space="preserve">[name="Ines"]  But, I might've accidentally taken a peek at Her Majesty. My Arts can't look directly into peoples' minds. More like I can get a feel for them by looking over their 'shadows'...
 </t>
   </si>
   <si>
@@ -1656,7 +1656,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  She’s... tragic. But extremely resilient, and gentle.
+    <t xml:space="preserve">[name="Ines"]  She's... tragic. But extremely resilient, and gentle.
 </t>
   </si>
   <si>
@@ -1664,15 +1664,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  ...You’re talking about Kal’tsit?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  You can’t feel it, can you?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  She sees us all as equals. She didn’t call us 'devils.'
+    <t xml:space="preserve">[name="Hoederer"]  ...You're talking about Kal'tsit?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  You can't feel it, can you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  She sees us all as equals. She didn't call us 'devils.'
 </t>
   </si>
   <si>
@@ -1684,19 +1684,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  ...Let’s put it like this: the soldiers are the pawns in the game. The commander is the player.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  When I saw the Doctor, I was struck with the feeling that I’m always gonna be a pawn.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  That one’s not a battlefield commander. The Doctor runs the whole war.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  That’s not why.
+    <t xml:space="preserve">[name="Ines"]  ...Let's put it like this: the soldiers are the pawns in the game. The commander is the player.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  When I saw the Doctor, I was struck with the feeling that I'm always gonna be a pawn.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  That one's not a battlefield commander. The Doctor runs the whole war.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  That's not why.
 </t>
   </si>
   <si>
@@ -1708,7 +1708,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  A chess player’s main focus is never on the pieces, or even the game. It’s always on the other player. You always want to beat an even match.
+    <t xml:space="preserve">[name="Ines"]  A chess player's main focus is never on the pieces, or even the game. It's always on the other player. You always want to beat an even match.
 </t>
   </si>
   <si>
@@ -1720,23 +1720,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  We’re all objects. Inanimate objects. There was only one person, one thing really alive on that battlefield. And it was that one.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  If we’re still gonna call ourselves people, then, well... the Doctor’s something else.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  Okay then. I think it’s safe to say we agree on that one.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  But it looks like Her Majesty, Kal’tsit, and whoever else don’t really mind.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  Dr. Kal’tsit’s always been careful. And even though we weren’t working together for very long, I got the impression their troops are kind of in the dark about it.
+    <t xml:space="preserve">[name="Ines"]  We're all objects. Inanimate objects. There was only one person, one thing really alive on that battlefield. And it was that one.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  If we're still gonna call ourselves people, then, well... the Doctor's something else.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  Okay then. I think it's safe to say we agree on that one.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  But it looks like Her Majesty, Kal'tsit, and whoever else don't really mind.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  Dr. Kal'tsit's always been careful. And even though we weren't working together for very long, I got the impression their troops are kind of in the dark about it.
 </t>
   </si>
   <si>
@@ -1748,7 +1748,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  Wait, you still didn’t answer my question. If we’re on the same page, why’d you leave W there then?
+    <t xml:space="preserve">[name="Ines"]  Wait, you still didn't answer my question. If we're on the same page, why'd you leave W there then?
 </t>
   </si>
   <si>
@@ -1764,11 +1764,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  Or do you think the Regent, Her Majesty’s brother, will open his heart, say 'all is forgiven,' and keep letting us raid the Lateranos?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  I want to get away from this war. I’m sick of fighting our own people... and we’ve already suffered enough.
+    <t xml:space="preserve">[name="Hoederer"]  Or do you think the Regent, Her Majesty's brother, will open his heart, say 'all is forgiven,' and keep letting us raid the Lateranos?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  I want to get away from this war. I'm sick of fighting our own people... and we've already suffered enough.
 </t>
   </si>
   <si>
@@ -1776,7 +1776,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  Don’t get me wrong, W buying us some insurance wasn’t the original plan...
+    <t xml:space="preserve">[name="Hoederer"]  Don't get me wrong, W buying us some insurance wasn't the original plan...
 </t>
   </si>
   <si>
@@ -1788,11 +1788,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Scout"]  You’ve taken to our work unexpectedly quickly.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Scout"]  And that goes for your two friends as well. Though they didn’t accept the Doctor’s invitation to stay, they still performed their work admirably.
+    <t xml:space="preserve">[name="Scout"]  You've taken to our work unexpectedly quickly.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Scout"]  And that goes for your two friends as well. Though they didn't accept the Doctor's invitation to stay, they still performed their work admirably.
 </t>
   </si>
   <si>
@@ -1800,7 +1800,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Scout"]  ...If you seek Her Majesty’s praise, you may petition for an audience with her yourself.
+    <t xml:space="preserve">[name="Scout"]  ...If you seek Her Majesty's praise, you may petition for an audience with her yourself.
 </t>
   </si>
   <si>
@@ -1820,11 +1820,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  I just want to go take a look. Can’t get chewed out for doing that, right?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Scout"]  Now who’s the bigger headache?
+    <t xml:space="preserve">[name="W"]  I just want to go take a look. Can't get chewed out for doing that, right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Scout"]  Now who's the bigger headache?
 </t>
   </si>
   <si>
@@ -1840,7 +1840,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Yeah, the 'alive' part is trickier than you’d think. Guy offed himself before I could even murk him. What’s a girl supposed to do?
+    <t xml:space="preserve">[name="W"]  Yeah, the 'alive' part is trickier than you'd think. Guy offed himself before I could even murk him. What's a girl supposed to do?
 </t>
   </si>
   <si>
@@ -1848,7 +1848,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Scout"]  They’re on the bridge. Amiya should be there too.
+    <t xml:space="preserve">[name="Scout"]  They're on the bridge. Amiya should be there too.
 </t>
   </si>
   <si>
@@ -1856,11 +1856,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Scout"]  That’s your business...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Scout"]  ...Just a moment, what’s that in your hand?
+    <t xml:space="preserve">[name="Scout"]  That's your business...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Scout"]  ...Just a moment, what's that in your hand?
 </t>
   </si>
   <si>
@@ -1868,7 +1868,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Scout"]  Don’t tell me you’re going to...
+    <t xml:space="preserve">[name="Scout"]  Don't tell me you're going to...
 </t>
   </si>
   <si>
@@ -1876,7 +1876,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Scout"]  ...Well, if Ms. Kal'tsit apprehends you as a spy, don’t expect me to bail you out.
+    <t xml:space="preserve">[name="Scout"]  ...Well, if Ms. Kal'tsit apprehends you as a spy, don't expect me to bail you out.
 </t>
   </si>
   <si>
@@ -1884,7 +1884,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  How’d those spies manage to get in here anyway?
+    <t xml:space="preserve">[name="W"]  How'd those spies manage to get in here anyway?
 </t>
   </si>
   <si>
@@ -1892,11 +1892,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Don’t you think... we’ve been going at our fights kinda weird lately?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Scout"]  That’s not an area where you or I should be pointing fingers. If you’re dissatisfied, take it up with the Doctor.
+    <t xml:space="preserve">[name="W"]  Don't you think... we've been going at our fights kinda weird lately?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Scout"]  That's not an area where you or I should be pointing fingers. If you're dissatisfied, take it up with the Doctor.
 </t>
   </si>
   <si>
@@ -1908,11 +1908,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  (Over there? Sure enough, of that’s all of them. I’m gonna lie low for a sec.)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  (What’s with the tiny bunny? The little shit’s ears are blocking Theresa!)
+    <t xml:space="preserve">[name="W"]  (Over there? Sure enough, of that's all of them. I'm gonna lie low for a sec.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  (What's with the tiny bunny? The little shit's ears are blocking Theresa!)
 </t>
   </si>
   <si>
@@ -1924,19 +1924,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  (...She’s not coming over here? Did she not see me?)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  (Damnit, what’s the Doctor doing here? Get that one in my picture and it’s 100% cursed...)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  (Aww, Theresa’s laughing.)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  (Screw it, I won’t get another opportunity like this!)
+    <t xml:space="preserve">[name="W"]  (...She's not coming over here? Did she not see me?)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  (Damnit, what's the Doctor doing here? Get that one in my picture and it's 100% cursed...)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  (Aww, Theresa's laughing.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  (Screw it, I won't get another opportunity like this!)
 </t>
   </si>
   <si>
@@ -1944,15 +1944,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">...W, do you even know what’s going on right now?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uhh, probably better than you do? I’m the one actually down on the battlefield putting in work, 'Dr. K'~
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It’s fine, Kal'tsit. There’s no need to be angry—
+    <t xml:space="preserve">...W, do you even know what's going on right now?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uhh, probably better than you do? I'm the one actually down on the battlefield putting in work, 'Dr. K'~
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's fine, Kal'tsit. There's no need to be angry—
 </t>
   </si>
   <si>
@@ -1968,11 +1968,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  C’mon, don’t be so nervous. You brave enough to get so close to the Speaker’s Office. Surely you came prepared to have your cover blown?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  And I’m in a pretty bad mood, so you’re not gonna have a good time.
+    <t xml:space="preserve">[name="W"]  C'mon, don't be so nervous. You brave enough to get so close to the Speaker's Office. Surely you came prepared to have your cover blown?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  And I'm in a pretty bad mood, so you're not gonna have a good time.
 </t>
   </si>
   <si>
@@ -1984,7 +1984,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Don’t rush it. We’re not ready for that. Not until I ask you some questions first. Now what was it...?
+    <t xml:space="preserve">[name="W"]  Don't rush it. We're not ready for that. Not until I ask you some questions first. Now what was it...?
 </t>
   </si>
   <si>
@@ -2004,7 +2004,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  What I really want to know is, say there’s an Originium needle hovering by that eye you can’t close. If I was to slowly push it in at a speed of three millimeters per second—
+    <t xml:space="preserve">[name="W"]  What I really want to know is, say there's an Originium needle hovering by that eye you can't close. If I was to slowly push it in at a speed of three millimeters per second—
 </t>
   </si>
   <si>
@@ -2012,7 +2012,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Hoederer’s prediction was correct. The war is starting to change.
+    <t xml:space="preserve">Hoederer's prediction was correct. The war is starting to change.
 </t>
   </si>
   <si>
@@ -2020,7 +2020,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">I’m just worried... about Theresa.
+    <t xml:space="preserve">I'm just worried... about Theresa.
 </t>
   </si>
   <si>
@@ -2028,11 +2028,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">She and I are the same kind of person. If she can even be considered a 'person,' that is. That’s one of a whole bunch of mysteries floating around her.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">But she’s much stronger than me. Maybe she will be able to protect Theresa—
+    <t xml:space="preserve">She and I are the same kind of person. If she can even be considered a 'person,' that is. That's one of a whole bunch of mysteries floating around her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But she's much stronger than me. Maybe she will be able to protect Theresa—
 </t>
   </si>
   <si>
